--- a/saude_ecr.xlsx
+++ b/saude_ecr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC3000-F508-40B3-8403-EF11FA474058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCBC04E-65CE-4F75-B9C2-B205E19EE78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{285E0080-FB4A-4CB3-9A8D-651658CDB1E9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$3:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$3:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="29">
   <si>
     <t>ecr</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>PARANOA</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -296,6 +299,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,989 +638,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF22E8D-C853-4A40-B029-7D1790EB4400}">
-  <dimension ref="B2:F66"/>
+  <dimension ref="B2:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>200</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>250</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>444</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>168</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>64</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>213</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>277</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>476</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>148</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>38</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>755</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>384</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>393</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>227</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>26</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>388</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>296</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>324</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>54</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>36</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>525</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <v>383</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>335</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>176</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>29</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>449</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>272</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>234</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>92</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>38</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>444</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>166</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>155</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>175</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>107</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>759</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>158</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>233</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>182</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>104</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>567</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>140</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>256</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>123</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>69</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>43</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>633</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>295</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>290</v>
       </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>53</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>80</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>63</v>
       </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>402</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>260</v>
       </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>315</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>65</v>
       </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>129</v>
       </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>33</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>429</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>421</v>
       </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>168</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>25</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="14">
+        <v>2023</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>141</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E66" xr:uid="{2EF22E8D-C853-4A40-B029-7D1790EB4400}"/>
+  <autoFilter ref="B3:F66" xr:uid="{2EF22E8D-C853-4A40-B029-7D1790EB4400}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>